--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H2">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I2">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J2">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N2">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O2">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P2">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q2">
-        <v>1165.818324770245</v>
+        <v>4892.952834117948</v>
       </c>
       <c r="R2">
-        <v>1165.818324770245</v>
+        <v>44036.57550706153</v>
       </c>
       <c r="S2">
-        <v>0.02129061915414845</v>
+        <v>0.05414949122683183</v>
       </c>
       <c r="T2">
-        <v>0.02129061915414845</v>
+        <v>0.05414949122683183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H3">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I3">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J3">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N3">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P3">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q3">
-        <v>298.8738551054207</v>
+        <v>482.9496511669342</v>
       </c>
       <c r="R3">
-        <v>298.8738551054207</v>
+        <v>4346.546860502409</v>
       </c>
       <c r="S3">
-        <v>0.00545814840012546</v>
+        <v>0.005344723071212625</v>
       </c>
       <c r="T3">
-        <v>0.00545814840012546</v>
+        <v>0.005344723071212626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H4">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I4">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J4">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N4">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O4">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P4">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q4">
-        <v>3109.539118495992</v>
+        <v>5420.989838275869</v>
       </c>
       <c r="R4">
-        <v>3109.539118495992</v>
+        <v>48788.90854448283</v>
       </c>
       <c r="S4">
-        <v>0.05678759006457706</v>
+        <v>0.05999318849787785</v>
       </c>
       <c r="T4">
-        <v>0.05678759006457706</v>
+        <v>0.05999318849787785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H5">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I5">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J5">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N5">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O5">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P5">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q5">
-        <v>107.2504122368123</v>
+        <v>186.8346159583569</v>
       </c>
       <c r="R5">
-        <v>107.2504122368123</v>
+        <v>1681.511543625213</v>
       </c>
       <c r="S5">
-        <v>0.001958647957870624</v>
+        <v>0.002067667468028912</v>
       </c>
       <c r="T5">
-        <v>0.001958647957870624</v>
+        <v>0.002067667468028912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H6">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I6">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J6">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N6">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O6">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P6">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q6">
-        <v>2791.779311319737</v>
+        <v>7309.220496523181</v>
       </c>
       <c r="R6">
-        <v>2791.779311319737</v>
+        <v>65782.98446870863</v>
       </c>
       <c r="S6">
-        <v>0.05098453920035381</v>
+        <v>0.0808899216014639</v>
       </c>
       <c r="T6">
-        <v>0.05098453920035381</v>
+        <v>0.08088992160146391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H7">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I7">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J7">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N7">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O7">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P7">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q7">
-        <v>715.711725960496</v>
+        <v>721.4427787825645</v>
       </c>
       <c r="R7">
-        <v>715.711725960496</v>
+        <v>6492.985009043081</v>
       </c>
       <c r="S7">
-        <v>0.01307060067406833</v>
+        <v>0.007984086653757829</v>
       </c>
       <c r="T7">
-        <v>0.01307060067406833</v>
+        <v>0.007984086653757829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H8">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I8">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J8">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N8">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O8">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P8">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q8">
-        <v>7446.397774256438</v>
+        <v>8098.015938572346</v>
       </c>
       <c r="R8">
-        <v>7446.397774256438</v>
+        <v>72882.14344715112</v>
       </c>
       <c r="S8">
-        <v>0.1359889578963657</v>
+        <v>0.0896193889225414</v>
       </c>
       <c r="T8">
-        <v>0.1359889578963657</v>
+        <v>0.08961938892254141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H9">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I9">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J9">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N9">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O9">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P9">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q9">
-        <v>256.8320257551742</v>
+        <v>279.0984198540796</v>
       </c>
       <c r="R9">
-        <v>256.8320257551742</v>
+        <v>2511.885778686717</v>
       </c>
       <c r="S9">
-        <v>0.004690364468254085</v>
+        <v>0.00308873556514377</v>
       </c>
       <c r="T9">
-        <v>0.004690364468254085</v>
+        <v>0.003088735565143771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H10">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I10">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J10">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N10">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O10">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P10">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q10">
-        <v>9269.05541157693</v>
+        <v>26967.19660568123</v>
       </c>
       <c r="R10">
-        <v>9269.05541157693</v>
+        <v>242704.7694511311</v>
       </c>
       <c r="S10">
-        <v>0.1692750272436101</v>
+        <v>0.2984414576468783</v>
       </c>
       <c r="T10">
-        <v>0.1692750272436101</v>
+        <v>0.2984414576468783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H11">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I11">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J11">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N11">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O11">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P11">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q11">
-        <v>2376.25216998516</v>
+        <v>2661.74611429944</v>
       </c>
       <c r="R11">
-        <v>2376.25216998516</v>
+        <v>23955.71502869497</v>
       </c>
       <c r="S11">
-        <v>0.04339602396912341</v>
+        <v>0.02945709937346943</v>
       </c>
       <c r="T11">
-        <v>0.04339602396912341</v>
+        <v>0.02945709937346943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H12">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I12">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J12">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N12">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O12">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P12">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q12">
-        <v>24722.96907795273</v>
+        <v>29877.43878232967</v>
       </c>
       <c r="R12">
-        <v>24722.96907795273</v>
+        <v>268896.9490409671</v>
       </c>
       <c r="S12">
-        <v>0.4515002962423109</v>
+        <v>0.3306486214097371</v>
       </c>
       <c r="T12">
-        <v>0.4515002962423109</v>
+        <v>0.3306486214097372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H13">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I13">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J13">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N13">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O13">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P13">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q13">
-        <v>852.71434906755</v>
+        <v>1029.727036435705</v>
       </c>
       <c r="R13">
-        <v>852.71434906755</v>
+        <v>9267.543327921348</v>
       </c>
       <c r="S13">
-        <v>0.01557259486108411</v>
+        <v>0.0113958170078209</v>
       </c>
       <c r="T13">
-        <v>0.01557259486108411</v>
+        <v>0.0113958170078209</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H14">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I14">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J14">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N14">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O14">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P14">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q14">
-        <v>409.4455396834559</v>
+        <v>1083.602016991694</v>
       </c>
       <c r="R14">
-        <v>409.4455396834559</v>
+        <v>9752.418152925242</v>
       </c>
       <c r="S14">
-        <v>0.007477450700977115</v>
+        <v>0.01199204241318762</v>
       </c>
       <c r="T14">
-        <v>0.007477450700977115</v>
+        <v>0.01199204241318762</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H15">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I15">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J15">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N15">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O15">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P15">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q15">
-        <v>104.9670984756829</v>
+        <v>106.9548867221534</v>
       </c>
       <c r="R15">
-        <v>104.9670984756829</v>
+        <v>962.593980499381</v>
       </c>
       <c r="S15">
-        <v>0.001916949210591786</v>
+        <v>0.001183651855346789</v>
       </c>
       <c r="T15">
-        <v>0.001916949210591786</v>
+        <v>0.001183651855346789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H16">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I16">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J16">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N16">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O16">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P16">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q16">
-        <v>1092.097195152876</v>
+        <v>1200.542028912925</v>
       </c>
       <c r="R16">
-        <v>1092.097195152876</v>
+        <v>10804.87826021632</v>
       </c>
       <c r="S16">
-        <v>0.01994429575113765</v>
+        <v>0.01328619798023915</v>
       </c>
       <c r="T16">
-        <v>0.01994429575113765</v>
+        <v>0.01328619798023915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H17">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I17">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J17">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N17">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O17">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P17">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q17">
-        <v>37.66727798538331</v>
+        <v>41.37672558064634</v>
       </c>
       <c r="R17">
-        <v>37.66727798538331</v>
+        <v>372.390530225817</v>
       </c>
       <c r="S17">
-        <v>0.0006878942054014147</v>
+        <v>0.0004579093064624108</v>
       </c>
       <c r="T17">
-        <v>0.0006878942054014147</v>
+        <v>0.0004579093064624108</v>
       </c>
     </row>
   </sheetData>
